--- a/biology/Zoologie/Erro_(genre)/Erro_(genre).xlsx
+++ b/biology/Zoologie/Erro_(genre)/Erro_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erro est un genre de coléoptères de la famille des Ptiliidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Erro a été créé en 2017 par l'entomologiste Michael Darby (d) sur la base de spécimens découverts en Angola et à Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Erro a été créé en 2017 par l'entomologiste Michael Darby (d) sur la base de spécimens découverts en Angola et à Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l’Index to Organism Names (ION) consulté le 29 octobre 2022[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l’Index to Organism Names (ION) consulté le 29 octobre 2022 :
 Erro angolensis Darby, 2017 - Angola
 Erro brookei Darby 2019 - Sarawak
 Erro goffi Darby 2020 - Afrique
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Michael Darby, « Erro gen. n. a new genus of featherwing beetles (Coleoptera: Ptiliidae) from Angola and Madagascar », Zootaxa, Magnolia Press (d), vol. 4299, no 1,‎ 26 juillet 2017, p. 137–140 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.4299.1.10, lire en ligne)</t>
         </is>
